--- a/dudo.xlsx
+++ b/dudo.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\util\it\github\DudoPerudo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C69FB8-2B1F-4FA1-837D-9169C00EB197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AAD01F-70BD-4F05-9526-0387049F2E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02C702D7-D7FC-49F7-8B03-6FC29670799C}"/>
   </bookViews>
